--- a/reports/_HMM_SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-11-28_26_.xlsx
+++ b/reports/_HMM_SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-11-28_26_.xlsx
@@ -138,7 +138,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -177,7 +177,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -191,7 +191,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>HMM</t>
         </is>
       </c>
     </row>
@@ -432,7 +432,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -447,7 +447,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -461,7 +461,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>HMM</t>
         </is>
       </c>
     </row>
@@ -578,7 +578,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -593,7 +593,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -607,7 +607,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>HMM</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -763,7 +763,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -777,7 +777,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>HMM</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -1038,7 +1038,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -1052,7 +1052,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>HMM</t>
         </is>
       </c>
     </row>
@@ -1169,7 +1169,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -1211,7 +1211,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>HMM</t>
         </is>
       </c>
     </row>
@@ -1474,7 +1474,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -1489,7 +1489,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -1503,7 +1503,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>HMM</t>
         </is>
       </c>
     </row>
@@ -1620,7 +1620,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -1657,7 +1657,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>HMM</t>
         </is>
       </c>
     </row>
@@ -1900,7 +1900,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -1915,7 +1915,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -1929,7 +1929,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>HMM</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2046,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -2073,7 +2073,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -2087,7 +2087,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>HMM</t>
         </is>
       </c>
     </row>
